--- a/experiments_res.xlsx
+++ b/experiments_res.xlsx
@@ -904,14 +904,13 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="132705280"/>
-        <c:axId val="135537408"/>
+        <c:axId val="90894336"/>
+        <c:axId val="90895872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="132705280"/>
+        <c:axId val="90894336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -952,14 +951,14 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135537408"/>
+        <c:crossAx val="90895872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135537408"/>
+        <c:axId val="90895872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1008,7 +1007,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132705280"/>
+        <c:crossAx val="90894336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1081,7 +1080,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1223,14 +1222,13 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="135570560"/>
-        <c:axId val="135572096"/>
+        <c:axId val="137210496"/>
+        <c:axId val="102925056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="135570560"/>
+        <c:axId val="137210496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1289,14 +1287,14 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135572096"/>
+        <c:crossAx val="102925056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135572096"/>
+        <c:axId val="102925056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1326,7 +1324,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-AR"/>
-                  <a:t>Cantidad de matches filtrados</a:t>
+                  <a:t>Cantidad de correspondencias filtrados</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1363,7 +1361,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135570560"/>
+        <c:crossAx val="137210496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1405,7 +1403,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2517,7 +2515,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{464A8D9A-C6E0-4F15-9DB4-DDAB010D3DA3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{464A8D9A-C6E0-4F15-9DB4-DDAB010D3DA3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2538,22 +2536,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>177165</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:colOff>36195</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>177165</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B3826B40-7EDF-4D5D-B103-EF4AC4091BF5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3826B40-7EDF-4D5D-B103-EF4AC4091BF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2863,7 +2861,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2873,8 +2871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
